--- a/TestCode/EVI_templete.xlsx
+++ b/TestCode/EVI_templete.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$BU$203</definedName>
-  </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,116 +56,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="19621500"/>
-          <a:ext cx="22340887" cy="16230601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314739" y="190500"/>
-          <a:ext cx="22370290" cy="16230601"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -202,7 +106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,10 +138,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +172,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,17 +347,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>